--- a/USHPRR/umoxe_defects.xlsx
+++ b/USHPRR/umoxe_defects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/Documents/USHPRR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD408C0-EF00-0A4D-9469-50E84C1ECAFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8104E7E7-AB1D-CB45-AF39-3379BD5BEAE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="900" windowWidth="28480" windowHeight="21680" activeTab="2" xr2:uid="{44D114B2-B18B-6042-94B9-10DCD6DAFC2F}"/>
+    <workbookView xWindow="11340" yWindow="3120" windowWidth="28480" windowHeight="21680" activeTab="2" xr2:uid="{44D114B2-B18B-6042-94B9-10DCD6DAFC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28394,8 +28394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47D423E-BD54-8B42-ADA6-C12DC7C9C316}">
   <dimension ref="B2:AA1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="W21" sqref="W21"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28884,7 +28884,7 @@
         <v>-4.5636685923753566</v>
       </c>
       <c r="V9" s="2">
-        <f t="shared" si="3"/>
+        <f>(Q9-S9*$U$14-R9*$U$13)/SUM(R9:S9)</f>
         <v>0.1892468769745391</v>
       </c>
       <c r="W9" s="2">
